--- a/workflow.xlsx
+++ b/workflow.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14140" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="2460" windowWidth="22470" windowHeight="11055" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -33,11 +34,6 @@
     <t>pick file, send to backend</t>
   </si>
   <si>
-    <t>receive file,  
-return metadata (suggest attribute and metric),
- preview mode, return sample data</t>
-  </si>
-  <si>
     <t>VI</t>
   </si>
   <si>
@@ -47,16 +43,21 @@
 Manipulation(dataset, target template, units)</t>
   </si>
   <si>
-    <t>publish to in-memory data structure, persist to disk if necessary
-return dataset id</t>
-  </si>
-  <si>
     <t>get session id, get dataset, do Subset(dataset, template, units), calculate result
 send back to client</t>
   </si>
   <si>
     <t>verify attributes/metrics
 click publish</t>
+  </si>
+  <si>
+    <t>receive file,  
+return ColumnName (suggest attribute and metric),
+ preview mode, return sample data</t>
+  </si>
+  <si>
+    <t>publish to in-memory data structure, persist to disk if necessary
+return dataset id, return metadata</t>
   </si>
 </sst>
 </file>
@@ -123,6 +124,79 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -134,7 +208,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="B6DEBB"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -451,16 +525,16 @@
   <dimension ref="B1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="65.83203125" customWidth="1"/>
+    <col min="3" max="3" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="65.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -468,7 +542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="2:4" ht="55" customHeight="1">
+    <row r="2" spans="2:4" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -476,32 +550,33 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="45">
+    <row r="3" spans="2:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="2:4" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" ht="30">
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" ht="30">
-      <c r="D5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" ht="90">
-      <c r="B8" t="s">
+      <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="1" t="s">
+    </row>
+    <row r="9" spans="2:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="D9" s="1" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" ht="30">
-      <c r="D9" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
